--- a/Stimuli/QuestMaster.xlsx
+++ b/Stimuli/QuestMaster.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="226">
   <si>
     <t>Item</t>
   </si>
@@ -376,6 +376,324 @@
   </si>
   <si>
     <t xml:space="preserve">C.There is not enough information to answer </t>
+  </si>
+  <si>
+    <t>A. Up the mountain</t>
+  </si>
+  <si>
+    <t>B. Down the mountain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.Bradley </t>
+  </si>
+  <si>
+    <t>B. Sam</t>
+  </si>
+  <si>
+    <t>A.Bird watchers</t>
+  </si>
+  <si>
+    <t>B.Bear hunters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Ahead </t>
+  </si>
+  <si>
+    <t>B.Back towards the surgery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.Been refurbished </t>
+  </si>
+  <si>
+    <t>B.Burned down</t>
+  </si>
+  <si>
+    <t>A.Malcom</t>
+  </si>
+  <si>
+    <t>B.Sue</t>
+  </si>
+  <si>
+    <t>B.Right</t>
+  </si>
+  <si>
+    <t>A.Susan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Benjamin  </t>
+  </si>
+  <si>
+    <t>A.Up</t>
+  </si>
+  <si>
+    <t>B.Down</t>
+  </si>
+  <si>
+    <t>A.Terrance</t>
+  </si>
+  <si>
+    <t>B.Stephen</t>
+  </si>
+  <si>
+    <t>A.Towards the bridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Away from the bridge </t>
+  </si>
+  <si>
+    <t>A.Harriet’s</t>
+  </si>
+  <si>
+    <t>B.Olive’s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1960’s </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.The football team </t>
+  </si>
+  <si>
+    <t>B.The art department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.The wildlife charity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.The cancer charity </t>
+  </si>
+  <si>
+    <t>A.Dustin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Ralph </t>
+  </si>
+  <si>
+    <t>B.Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.Up </t>
+  </si>
+  <si>
+    <t>A.Catherine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Thom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.People on a budget </t>
+  </si>
+  <si>
+    <t>A.Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Left </t>
+  </si>
+  <si>
+    <t>A.Agatha</t>
+  </si>
+  <si>
+    <t>B.Rachel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. Toucan Drive </t>
+  </si>
+  <si>
+    <t>A. Ahead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Back </t>
+  </si>
+  <si>
+    <t>A.Sally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Joanna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. The soldiers that fought in the First World War </t>
+  </si>
+  <si>
+    <t>A.The Helicopter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.The Biplane </t>
+  </si>
+  <si>
+    <t>A.Josh</t>
+  </si>
+  <si>
+    <t>B.Terry</t>
+  </si>
+  <si>
+    <t>A.Empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.To the Left </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.To the right </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.Ella </t>
+  </si>
+  <si>
+    <t>B.Felix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.Behind the lathe </t>
+  </si>
+  <si>
+    <t>B.In front of the lathe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.Toby </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. Steve </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.False </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Down </t>
+  </si>
+  <si>
+    <t>A.Lucy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Linda </t>
+  </si>
+  <si>
+    <t>A.Iron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Copper </t>
+  </si>
+  <si>
+    <t>A.Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Jolene </t>
+  </si>
+  <si>
+    <t>B. Fanella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Monthly </t>
+  </si>
+  <si>
+    <t>A.Team Blue</t>
+  </si>
+  <si>
+    <t>A.The blue team</t>
+  </si>
+  <si>
+    <t>B.The green team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.The folk music festival </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. The sailing festival </t>
+  </si>
+  <si>
+    <t>B.One event that takes place throughout the year</t>
+  </si>
+  <si>
+    <t>A.Up the hill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Down the hill </t>
+  </si>
+  <si>
+    <t>A.Farmer Jack’s farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. The bus company </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.Picknick area </t>
+  </si>
+  <si>
+    <t>A.Frank</t>
+  </si>
+  <si>
+    <t>B.Susan</t>
+  </si>
+  <si>
+    <t>A.The King Charles</t>
+  </si>
+  <si>
+    <t>B.The Fast Kitten</t>
+  </si>
+  <si>
+    <t>A.Melvin</t>
+  </si>
+  <si>
+    <t>B.Herman</t>
+  </si>
+  <si>
+    <t>A.Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.No </t>
+  </si>
+  <si>
+    <t>A.Great Britian’s</t>
+  </si>
+  <si>
+    <t>B.Demark’s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.Amanda </t>
+  </si>
+  <si>
+    <t>B.Jess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.Towards the sculpture of the whale </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Away from the sculpture of the whale </t>
+  </si>
+  <si>
+    <t>A.Fred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Simon </t>
+  </si>
+  <si>
+    <t>A.Oak</t>
+  </si>
+  <si>
+    <t>B.Birch</t>
+  </si>
+  <si>
+    <t>A.Aaron</t>
+  </si>
+  <si>
+    <t>B.Josephine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. Back </t>
+  </si>
+  <si>
+    <t>B.In front of the lathe.</t>
+  </si>
+  <si>
+    <t>A.The King Fisher</t>
+  </si>
+  <si>
+    <t>A.Towards the Sculpture of the Whale</t>
+  </si>
+  <si>
+    <t>B.The Art Department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.Jolene </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.The Folk music Festival </t>
   </si>
 </sst>
 </file>
@@ -403,12 +721,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -423,13 +753,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,13 +1076,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V50"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="9.140625" style="7"/>
+    <col min="8" max="8" width="9.140625" style="4"/>
+    <col min="12" max="12" width="9.140625" style="7"/>
+    <col min="13" max="13" width="9.140625" style="4"/>
+    <col min="17" max="17" width="9.140625" style="7"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -746,7 +1098,7 @@
       <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
@@ -758,10 +1110,10 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I1" t="s">
@@ -773,10 +1125,10 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="N1" t="s">
@@ -788,7 +1140,7 @@
       <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="7" t="s">
         <v>15</v>
       </c>
       <c r="R1" t="s">
@@ -808,7 +1160,7 @@
       <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -820,10 +1172,10 @@
       <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="11" t="s">
         <v>77</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -835,10 +1187,10 @@
       <c r="K2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="L2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>53</v>
       </c>
       <c r="N2" s="2" t="s">
@@ -850,7 +1202,7 @@
       <c r="P2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="8" t="s">
         <v>29</v>
       </c>
       <c r="R2">
@@ -876,31 +1228,49 @@
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="N3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="8" t="s">
         <v>103</v>
       </c>
       <c r="R3">
@@ -926,22 +1296,49 @@
       <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="N4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="8" t="s">
         <v>104</v>
       </c>
       <c r="R4">
@@ -967,22 +1364,49 @@
       <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="I5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="N5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="O5" t="s">
+        <v>105</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="8" t="s">
         <v>105</v>
       </c>
       <c r="R5">
@@ -1008,22 +1432,49 @@
       <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="I6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="N6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="8" t="s">
         <v>106</v>
       </c>
       <c r="R6">
@@ -1049,22 +1500,49 @@
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="D7" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="3" t="s">
+      <c r="I7" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="N7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="10" t="s">
         <v>105</v>
       </c>
       <c r="R7">
@@ -1090,22 +1568,49 @@
       <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="D8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="I8" t="s">
+        <v>144</v>
+      </c>
+      <c r="J8" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>143</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>107</v>
       </c>
       <c r="R8">
@@ -1131,22 +1636,49 @@
       <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="D9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="I9" t="s">
+        <v>148</v>
+      </c>
+      <c r="J9" t="s">
+        <v>149</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
+        <v>150</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>108</v>
       </c>
       <c r="R9">
@@ -1172,22 +1704,49 @@
       <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="D10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="I10" t="s">
+        <v>152</v>
+      </c>
+      <c r="J10" t="s">
+        <v>153</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>154</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>109</v>
       </c>
       <c r="R10">
@@ -1213,22 +1772,49 @@
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="D11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="I11" t="s">
+        <v>157</v>
+      </c>
+      <c r="J11" t="s">
+        <v>158</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>159</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>110</v>
       </c>
       <c r="R11">
@@ -1254,22 +1840,49 @@
       <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="D12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="I12" t="s">
+        <v>162</v>
+      </c>
+      <c r="J12" t="s">
+        <v>163</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="N12" t="s">
+        <v>164</v>
+      </c>
+      <c r="O12" t="s">
+        <v>111</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>111</v>
       </c>
       <c r="R12">
@@ -1295,22 +1908,49 @@
       <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="D13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="I13" t="s">
+        <v>167</v>
+      </c>
+      <c r="J13" t="s">
+        <v>168</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="N13" t="s">
+        <v>169</v>
+      </c>
+      <c r="O13" t="s">
+        <v>112</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>112</v>
       </c>
       <c r="R13">
@@ -1336,22 +1976,49 @@
       <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="D14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="I14" t="s">
+        <v>172</v>
+      </c>
+      <c r="J14" t="s">
+        <v>173</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="N14" t="s">
+        <v>113</v>
+      </c>
+      <c r="O14" t="s">
+        <v>105</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>113</v>
       </c>
       <c r="R14">
@@ -1377,22 +2044,49 @@
       <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="D15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="I15" t="s">
+        <v>176</v>
+      </c>
+      <c r="J15" t="s">
+        <v>177</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="N15" t="s">
+        <v>113</v>
+      </c>
+      <c r="O15" t="s">
+        <v>178</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>113</v>
       </c>
       <c r="R15">
@@ -1418,22 +2112,49 @@
       <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="D16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="I16" t="s">
+        <v>180</v>
+      </c>
+      <c r="J16" t="s">
+        <v>181</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="N16" t="s">
+        <v>182</v>
+      </c>
+      <c r="O16" t="s">
+        <v>183</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>114</v>
       </c>
       <c r="R16">
@@ -1459,22 +2180,49 @@
       <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="D17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="I17" t="s">
+        <v>185</v>
+      </c>
+      <c r="J17" t="s">
+        <v>186</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="N17" t="s">
+        <v>115</v>
+      </c>
+      <c r="O17" t="s">
+        <v>187</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>115</v>
       </c>
       <c r="R17">
@@ -1500,22 +2248,49 @@
       <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="D18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" t="s">
+        <v>190</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="I18" t="s">
+        <v>191</v>
+      </c>
+      <c r="J18" t="s">
+        <v>192</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="N18" t="s">
+        <v>116</v>
+      </c>
+      <c r="O18" t="s">
+        <v>193</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>116</v>
       </c>
       <c r="R18">
@@ -1541,22 +2316,49 @@
       <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="D19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" t="s">
+        <v>195</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="I19" t="s">
+        <v>196</v>
+      </c>
+      <c r="J19" t="s">
+        <v>197</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="N19" t="s">
+        <v>198</v>
+      </c>
+      <c r="O19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>117</v>
       </c>
       <c r="R19">
@@ -1582,22 +2384,49 @@
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="D20" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="I20" t="s">
+        <v>199</v>
+      </c>
+      <c r="J20" t="s">
+        <v>200</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="N20" t="s">
+        <v>118</v>
+      </c>
+      <c r="O20" t="s">
+        <v>178</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>118</v>
       </c>
       <c r="R20">
@@ -1623,22 +2452,49 @@
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="D21" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" t="s">
+        <v>202</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="I21" t="s">
+        <v>203</v>
+      </c>
+      <c r="J21" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="N21" t="s">
+        <v>118</v>
+      </c>
+      <c r="O21" t="s">
+        <v>105</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>105</v>
       </c>
       <c r="R21">
@@ -1664,22 +2520,49 @@
       <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="D22" t="s">
+        <v>205</v>
+      </c>
+      <c r="E22" t="s">
+        <v>206</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="I22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J22" t="s">
+        <v>208</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="N22" t="s">
+        <v>113</v>
+      </c>
+      <c r="O22" t="s">
+        <v>105</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>113</v>
       </c>
       <c r="R22">
@@ -1705,22 +2588,49 @@
       <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="D23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" t="s">
+        <v>206</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="I23" t="s">
+        <v>209</v>
+      </c>
+      <c r="J23" t="s">
+        <v>210</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="N23" t="s">
+        <v>118</v>
+      </c>
+      <c r="O23" t="s">
+        <v>178</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>118</v>
       </c>
       <c r="R23">
@@ -1746,22 +2656,49 @@
       <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="D24" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" t="s">
+        <v>212</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24" t="s">
+      <c r="I24" t="s">
+        <v>213</v>
+      </c>
+      <c r="J24" t="s">
+        <v>214</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="N24" t="s">
+        <v>113</v>
+      </c>
+      <c r="O24" t="s">
+        <v>105</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>105</v>
       </c>
       <c r="R24">
@@ -1785,24 +2722,51 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="D25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E25" t="s">
+        <v>216</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="I25" t="s">
+        <v>217</v>
+      </c>
+      <c r="J25" t="s">
+        <v>218</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="N25" t="s">
+        <v>113</v>
+      </c>
+      <c r="O25" t="s">
+        <v>178</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>113</v>
       </c>
       <c r="R25">
@@ -1828,15 +2792,51 @@
       <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="Q26" s="2" t="s">
+      <c r="I26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="P26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="R26">
         <f t="shared" si="0"/>
         <v>156</v>
@@ -1847,7 +2847,7 @@
       </c>
       <c r="T26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="V26">
         <v>25</v>
@@ -1860,29 +2860,62 @@
       <c r="B27" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="D27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="I27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="0"/>
+        <v>191</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="2"/>
         <v>53</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="0"/>
-        <v>191</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="2"/>
-        <v>56</v>
       </c>
       <c r="V27">
         <v>26</v>
@@ -1895,16 +2928,49 @@
       <c r="B28" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="D28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="M28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q28" s="2" t="s">
+      <c r="I28" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q28" s="8" t="s">
         <v>104</v>
       </c>
       <c r="R28">
@@ -1917,7 +2983,7 @@
       </c>
       <c r="T28">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="V28">
         <v>27</v>
@@ -1930,18 +2996,51 @@
       <c r="B29" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="D29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="M29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q29" s="2" t="s">
+      <c r="I29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="O29" t="s">
         <v>105</v>
       </c>
+      <c r="P29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="R29">
         <f t="shared" si="0"/>
         <v>169</v>
@@ -1952,7 +3051,7 @@
       </c>
       <c r="T29">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="V29">
         <v>28</v>
@@ -1965,16 +3064,49 @@
       <c r="B30" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="D30" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="M30" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q30" s="2" t="s">
+      <c r="I30" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="8" t="s">
         <v>106</v>
       </c>
       <c r="R30">
@@ -1987,7 +3119,7 @@
       </c>
       <c r="T30">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="V30">
         <v>29</v>
@@ -2000,18 +3132,51 @@
       <c r="B31" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="D31" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="M31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q31" s="3" t="s">
+      <c r="I31" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="O31" s="3" t="s">
         <v>105</v>
       </c>
+      <c r="P31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q31" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="R31">
         <f t="shared" si="0"/>
         <v>213</v>
@@ -2022,7 +3187,7 @@
       </c>
       <c r="T31">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="V31">
         <v>30</v>
@@ -2035,18 +3200,51 @@
       <c r="B32" t="s">
         <v>21</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H32" t="s">
+      <c r="D32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q32" t="s">
+      <c r="I32" t="s">
+        <v>144</v>
+      </c>
+      <c r="J32" t="s">
+        <v>145</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N32" t="s">
         <v>107</v>
       </c>
+      <c r="O32" t="s">
+        <v>143</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="R32">
         <f t="shared" si="0"/>
         <v>116</v>
@@ -2057,7 +3255,7 @@
       </c>
       <c r="T32">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="V32">
         <v>31</v>
@@ -2070,18 +3268,51 @@
       <c r="B33" t="s">
         <v>21</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H33" t="s">
+      <c r="D33" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" t="s">
+        <v>147</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="M33" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q33" t="s">
+      <c r="I33" t="s">
+        <v>148</v>
+      </c>
+      <c r="J33" t="s">
+        <v>149</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N33" t="s">
         <v>108</v>
       </c>
+      <c r="O33" t="s">
+        <v>150</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>108</v>
+      </c>
       <c r="R33">
         <f t="shared" si="0"/>
         <v>192</v>
@@ -2092,7 +3323,7 @@
       </c>
       <c r="T33">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="V33">
         <v>32</v>
@@ -2105,18 +3336,51 @@
       <c r="B34" t="s">
         <v>21</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H34" t="s">
+      <c r="D34" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="M34" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q34" t="s">
+      <c r="I34" t="s">
+        <v>152</v>
+      </c>
+      <c r="J34" t="s">
+        <v>153</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N34" t="s">
         <v>109</v>
       </c>
+      <c r="O34" t="s">
+        <v>154</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="R34">
         <f t="shared" si="0"/>
         <v>155</v>
@@ -2127,7 +3391,7 @@
       </c>
       <c r="T34">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="V34">
         <v>33</v>
@@ -2140,18 +3404,51 @@
       <c r="B35" t="s">
         <v>21</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H35" t="s">
+      <c r="D35" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="M35" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q35" t="s">
+      <c r="I35" t="s">
+        <v>157</v>
+      </c>
+      <c r="J35" t="s">
+        <v>158</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N35" t="s">
         <v>110</v>
       </c>
+      <c r="O35" t="s">
+        <v>159</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="R35">
         <f t="shared" si="0"/>
         <v>205</v>
@@ -2162,7 +3459,7 @@
       </c>
       <c r="T35">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="V35">
         <v>34</v>
@@ -2175,18 +3472,51 @@
       <c r="B36" t="s">
         <v>21</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H36" t="s">
+      <c r="D36" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" t="s">
+        <v>161</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="M36" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q36" t="s">
+      <c r="I36" t="s">
+        <v>162</v>
+      </c>
+      <c r="J36" t="s">
+        <v>163</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N36" t="s">
+        <v>164</v>
+      </c>
+      <c r="O36" t="s">
         <v>111</v>
       </c>
+      <c r="P36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="R36">
         <f t="shared" si="0"/>
         <v>199</v>
@@ -2197,7 +3527,7 @@
       </c>
       <c r="T36">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="V36">
         <v>35</v>
@@ -2210,18 +3540,51 @@
       <c r="B37" t="s">
         <v>21</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H37" t="s">
+      <c r="D37" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" t="s">
+        <v>166</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="M37" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q37" t="s">
+      <c r="I37" t="s">
+        <v>167</v>
+      </c>
+      <c r="J37" t="s">
+        <v>168</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N37" t="s">
+        <v>169</v>
+      </c>
+      <c r="O37" t="s">
         <v>112</v>
       </c>
+      <c r="P37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="R37">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2232,7 +3595,7 @@
       </c>
       <c r="T37">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="V37">
         <v>36</v>
@@ -2245,18 +3608,51 @@
       <c r="B38" t="s">
         <v>21</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H38" t="s">
+      <c r="D38" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="M38" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q38" t="s">
+      <c r="I38" t="s">
+        <v>172</v>
+      </c>
+      <c r="J38" t="s">
+        <v>173</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N38" t="s">
         <v>113</v>
       </c>
+      <c r="O38" t="s">
+        <v>105</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="R38">
         <f t="shared" si="0"/>
         <v>282</v>
@@ -2267,7 +3663,7 @@
       </c>
       <c r="T38">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="V38">
         <v>37</v>
@@ -2280,18 +3676,51 @@
       <c r="B39" t="s">
         <v>21</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H39" t="s">
+      <c r="D39" t="s">
+        <v>174</v>
+      </c>
+      <c r="E39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="M39" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q39" t="s">
+      <c r="I39" t="s">
+        <v>176</v>
+      </c>
+      <c r="J39" t="s">
+        <v>177</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N39" t="s">
         <v>113</v>
       </c>
+      <c r="O39" t="s">
+        <v>178</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="R39">
         <f t="shared" si="0"/>
         <v>79</v>
@@ -2302,7 +3731,7 @@
       </c>
       <c r="T39">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="V39">
         <v>38</v>
@@ -2315,16 +3744,49 @@
       <c r="B40" t="s">
         <v>21</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H40" t="s">
+      <c r="D40" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" t="s">
+        <v>179</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="M40" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q40" t="s">
+      <c r="I40" t="s">
+        <v>180</v>
+      </c>
+      <c r="J40" t="s">
+        <v>181</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N40" t="s">
+        <v>182</v>
+      </c>
+      <c r="O40" t="s">
+        <v>183</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>114</v>
       </c>
       <c r="R40">
@@ -2337,7 +3799,7 @@
       </c>
       <c r="T40">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="V40">
         <v>39</v>
@@ -2350,18 +3812,51 @@
       <c r="B41" t="s">
         <v>21</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H41" t="s">
+      <c r="D41" t="s">
+        <v>184</v>
+      </c>
+      <c r="E41" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="M41" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q41" t="s">
+      <c r="I41" t="s">
+        <v>185</v>
+      </c>
+      <c r="J41" t="s">
+        <v>186</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N41" t="s">
         <v>115</v>
       </c>
+      <c r="O41" t="s">
+        <v>187</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="R41">
         <f t="shared" si="0"/>
         <v>132</v>
@@ -2372,7 +3867,7 @@
       </c>
       <c r="T41">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V41">
         <v>40</v>
@@ -2385,18 +3880,51 @@
       <c r="B42" t="s">
         <v>21</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H42" t="s">
+      <c r="D42" t="s">
+        <v>189</v>
+      </c>
+      <c r="E42" t="s">
+        <v>190</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="M42" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q42" t="s">
+      <c r="I42" t="s">
+        <v>191</v>
+      </c>
+      <c r="J42" t="s">
+        <v>192</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N42" t="s">
         <v>116</v>
       </c>
+      <c r="O42" t="s">
+        <v>193</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="R42">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2407,7 +3935,7 @@
       </c>
       <c r="T42">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="V42">
         <v>41</v>
@@ -2420,18 +3948,51 @@
       <c r="B43" t="s">
         <v>21</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H43" t="s">
+      <c r="D43" t="s">
+        <v>194</v>
+      </c>
+      <c r="E43" t="s">
+        <v>195</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="M43" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q43" t="s">
+      <c r="I43" t="s">
+        <v>196</v>
+      </c>
+      <c r="J43" t="s">
+        <v>197</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N43" t="s">
+        <v>198</v>
+      </c>
+      <c r="O43" t="s">
         <v>117</v>
       </c>
+      <c r="P43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="R43">
         <f t="shared" si="0"/>
         <v>213</v>
@@ -2442,7 +4003,7 @@
       </c>
       <c r="T43">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="V43">
         <v>42</v>
@@ -2455,18 +4016,51 @@
       <c r="B44" t="s">
         <v>21</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H44" t="s">
+      <c r="D44" t="s">
+        <v>184</v>
+      </c>
+      <c r="E44" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="M44" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q44" t="s">
+      <c r="I44" t="s">
+        <v>199</v>
+      </c>
+      <c r="J44" t="s">
+        <v>200</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N44" t="s">
         <v>118</v>
       </c>
+      <c r="O44" t="s">
+        <v>178</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q44" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="R44">
         <f t="shared" si="0"/>
         <v>131</v>
@@ -2477,7 +4071,7 @@
       </c>
       <c r="T44">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="V44">
         <v>43</v>
@@ -2490,18 +4084,51 @@
       <c r="B45" t="s">
         <v>21</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H45" t="s">
+      <c r="D45" t="s">
+        <v>201</v>
+      </c>
+      <c r="E45" t="s">
+        <v>202</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="M45" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q45" t="s">
+      <c r="I45" t="s">
+        <v>203</v>
+      </c>
+      <c r="J45" t="s">
+        <v>204</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N45" t="s">
+        <v>118</v>
+      </c>
+      <c r="O45" t="s">
         <v>105</v>
       </c>
+      <c r="P45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="R45">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -2512,7 +4139,7 @@
       </c>
       <c r="T45">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="V45">
         <v>44</v>
@@ -2525,18 +4152,51 @@
       <c r="B46" t="s">
         <v>21</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H46" t="s">
+      <c r="D46" t="s">
+        <v>205</v>
+      </c>
+      <c r="E46" t="s">
+        <v>206</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="M46" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q46" t="s">
+      <c r="I46" t="s">
+        <v>207</v>
+      </c>
+      <c r="J46" t="s">
+        <v>208</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N46" t="s">
         <v>113</v>
       </c>
+      <c r="O46" t="s">
+        <v>105</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="R46">
         <f t="shared" si="0"/>
         <v>222</v>
@@ -2547,7 +4207,7 @@
       </c>
       <c r="T46">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="V46">
         <v>45</v>
@@ -2560,18 +4220,51 @@
       <c r="B47" t="s">
         <v>21</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H47" t="s">
+      <c r="D47" t="s">
+        <v>205</v>
+      </c>
+      <c r="E47" t="s">
+        <v>206</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="M47" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q47" t="s">
+      <c r="I47" t="s">
+        <v>209</v>
+      </c>
+      <c r="J47" t="s">
+        <v>210</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N47" t="s">
         <v>118</v>
       </c>
+      <c r="O47" t="s">
+        <v>178</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="R47">
         <f t="shared" si="0"/>
         <v>140</v>
@@ -2582,7 +4275,7 @@
       </c>
       <c r="T47">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="V47">
         <v>46</v>
@@ -2595,18 +4288,51 @@
       <c r="B48" t="s">
         <v>21</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H48" t="s">
+      <c r="D48" t="s">
+        <v>211</v>
+      </c>
+      <c r="E48" t="s">
+        <v>212</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="M48" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q48" t="s">
+      <c r="I48" t="s">
+        <v>213</v>
+      </c>
+      <c r="J48" t="s">
+        <v>214</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N48" t="s">
+        <v>113</v>
+      </c>
+      <c r="O48" t="s">
         <v>105</v>
       </c>
+      <c r="P48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="R48">
         <f t="shared" si="0"/>
         <v>128</v>
@@ -2617,7 +4343,7 @@
       </c>
       <c r="T48">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="V48">
         <v>47</v>
@@ -2630,18 +4356,51 @@
       <c r="B49" t="s">
         <v>21</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H49" t="s">
+      <c r="D49" t="s">
+        <v>215</v>
+      </c>
+      <c r="E49" t="s">
+        <v>216</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="M49" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q49" t="s">
+      <c r="I49" t="s">
+        <v>217</v>
+      </c>
+      <c r="J49" t="s">
+        <v>218</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N49" t="s">
         <v>113</v>
       </c>
+      <c r="O49" t="s">
+        <v>178</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="R49">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2652,15 +4411,10 @@
       </c>
       <c r="T49">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="V49">
         <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="M50" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
